--- a/R/data_manipulated/280322_Biochar_ratios.xlsx
+++ b/R/data_manipulated/280322_Biochar_ratios.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>N2_BET_SA</t>
+          <t>N2_SA2</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>N2_BJH_PV</t>
+          <t>N2_PV</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>CO2_DFT_SA</t>
+          <t>CO2_SA</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>CO2_DFT_PV</t>
+          <t>CO2_PV</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
